--- a/Classifier1/Forrest_StatsHypertensive disease .xlsx
+++ b/Classifier1/Forrest_StatsHypertensive disease .xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\MedHelpCrawler_1\Classifier1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +106,1317 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.58882235528942117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58682634730538918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58682634730538918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59081836327345305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59281437125748504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59281437125748504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59281437125748504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59281437125748504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59081836327345305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5900167758170145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58762290341237711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58749398363548855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59128013060597329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5933396323105502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59313866513233604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59313866513233604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59313866513233604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59118164374800131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.58893227091633471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58691633466135462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58690836653386458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59088446215139445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59288446215139445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59286852589641437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59286852589641437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59286852589641437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59087649402390441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FScore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.58762466436517058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58602809390181099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58616685488086639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59040060619354318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59234500143591051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59254002679084006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59254002679084006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59254002679084006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59049859452562736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1574600448"/>
+        <c:axId val="1574597728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1574600448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574597728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1574597728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574600448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -147,7 +1462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +1494,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +1529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +1705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -420,19 +1739,19 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.5888223552894212</v>
+        <v>0.58882235528942117</v>
       </c>
       <c r="D2">
         <v>0.5900167758170145</v>
       </c>
       <c r="E2">
-        <v>0.5889322709163347</v>
+        <v>0.58893227091633471</v>
       </c>
       <c r="F2">
-        <v>0.5876246643651706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.58762466436517058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -440,19 +1759,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0.5868263473053892</v>
+        <v>0.58682634730538918</v>
       </c>
       <c r="D3">
-        <v>0.5876229034123771</v>
+        <v>0.58762290341237711</v>
       </c>
       <c r="E3">
-        <v>0.5869163346613546</v>
+        <v>0.58691633466135462</v>
       </c>
       <c r="F3">
-        <v>0.586028093901811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.58602809390181099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -460,19 +1779,19 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>0.5868263473053892</v>
+        <v>0.58682634730538918</v>
       </c>
       <c r="D4">
-        <v>0.5874939836354885</v>
+        <v>0.58749398363548855</v>
       </c>
       <c r="E4">
-        <v>0.5869083665338646</v>
+        <v>0.58690836653386458</v>
       </c>
       <c r="F4">
-        <v>0.5861668548808664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.58616685488086639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -480,19 +1799,19 @@
         <v>400</v>
       </c>
       <c r="C5">
-        <v>0.5908183632734531</v>
+        <v>0.59081836327345305</v>
       </c>
       <c r="D5">
-        <v>0.5912801306059733</v>
+        <v>0.59128013060597329</v>
       </c>
       <c r="E5">
-        <v>0.5908844621513945</v>
+        <v>0.59088446215139445</v>
       </c>
       <c r="F5">
-        <v>0.5904006061935432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.59040060619354318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -500,19 +1819,19 @@
         <v>500</v>
       </c>
       <c r="C6">
-        <v>0.592814371257485</v>
+        <v>0.59281437125748504</v>
       </c>
       <c r="D6">
         <v>0.5933396323105502</v>
       </c>
       <c r="E6">
-        <v>0.5928844621513945</v>
+        <v>0.59288446215139445</v>
       </c>
       <c r="F6">
-        <v>0.5923450014359105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.59234500143591051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -520,19 +1839,19 @@
         <v>600</v>
       </c>
       <c r="C7">
-        <v>0.592814371257485</v>
+        <v>0.59281437125748504</v>
       </c>
       <c r="D7">
-        <v>0.593138665132336</v>
+        <v>0.59313866513233604</v>
       </c>
       <c r="E7">
-        <v>0.5928685258964144</v>
+        <v>0.59286852589641437</v>
       </c>
       <c r="F7">
-        <v>0.5925400267908401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.59254002679084006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -540,19 +1859,19 @@
         <v>700</v>
       </c>
       <c r="C8">
-        <v>0.592814371257485</v>
+        <v>0.59281437125748504</v>
       </c>
       <c r="D8">
-        <v>0.593138665132336</v>
+        <v>0.59313866513233604</v>
       </c>
       <c r="E8">
-        <v>0.5928685258964144</v>
+        <v>0.59286852589641437</v>
       </c>
       <c r="F8">
-        <v>0.5925400267908401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.59254002679084006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -560,19 +1879,19 @@
         <v>800</v>
       </c>
       <c r="C9">
-        <v>0.592814371257485</v>
+        <v>0.59281437125748504</v>
       </c>
       <c r="D9">
-        <v>0.593138665132336</v>
+        <v>0.59313866513233604</v>
       </c>
       <c r="E9">
-        <v>0.5928685258964144</v>
+        <v>0.59286852589641437</v>
       </c>
       <c r="F9">
-        <v>0.5925400267908401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.59254002679084006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -580,32 +1899,33 @@
         <v>900</v>
       </c>
       <c r="C10">
-        <v>0.5908183632734531</v>
+        <v>0.59081836327345305</v>
       </c>
       <c r="D10">
-        <v>0.5911816437480013</v>
+        <v>0.59118164374800131</v>
       </c>
       <c r="E10">
-        <v>0.5908764940239044</v>
+        <v>0.59087649402390441</v>
       </c>
       <c r="F10">
-        <v>0.5904985945256274</v>
+        <v>0.59049859452562736</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -633,16 +1953,16 @@
         <v>0.6875</v>
       </c>
       <c r="D2">
-        <v>0.6960072595281306</v>
+        <v>0.69600725952813058</v>
       </c>
       <c r="E2">
         <v>0.6875</v>
       </c>
       <c r="F2">
-        <v>0.6840719613865731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.68407196138657311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -650,19 +1970,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0.7291666666666666</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D3">
-        <v>0.7395644283121597</v>
+        <v>0.73956442831215974</v>
       </c>
       <c r="E3">
-        <v>0.7291666666666667</v>
+        <v>0.72916666666666674</v>
       </c>
       <c r="F3">
-        <v>0.7261956998683634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.72619569986836341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -670,19 +1990,19 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D4">
         <v>0.7142857142857143</v>
       </c>
       <c r="E4">
-        <v>0.7083333333333333</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="F4">
-        <v>0.7062937062937062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.70629370629370625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -690,19 +2010,19 @@
         <v>400</v>
       </c>
       <c r="C5">
-        <v>0.7291666666666666</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D5">
-        <v>0.7395644283121597</v>
+        <v>0.73956442831215974</v>
       </c>
       <c r="E5">
-        <v>0.7291666666666667</v>
+        <v>0.72916666666666674</v>
       </c>
       <c r="F5">
-        <v>0.7261956998683634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.72619569986836341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -710,19 +2030,19 @@
         <v>500</v>
       </c>
       <c r="C6">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D6">
         <v>0.7142857142857143</v>
       </c>
       <c r="E6">
-        <v>0.7083333333333333</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="F6">
-        <v>0.7062937062937062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.70629370629370625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -733,16 +2053,16 @@
         <v>0.6875</v>
       </c>
       <c r="D7">
-        <v>0.6904761904761905</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="E7">
         <v>0.6875</v>
       </c>
       <c r="F7">
-        <v>0.6862745098039216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.68627450980392157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -750,19 +2070,19 @@
         <v>700</v>
       </c>
       <c r="C8">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D8">
         <v>0.7142857142857143</v>
       </c>
       <c r="E8">
-        <v>0.7083333333333333</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="F8">
-        <v>0.7062937062937062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.70629370629370625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -770,19 +2090,19 @@
         <v>800</v>
       </c>
       <c r="C9">
-        <v>0.7291666666666666</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D9">
-        <v>0.7395644283121597</v>
+        <v>0.73956442831215974</v>
       </c>
       <c r="E9">
-        <v>0.7291666666666667</v>
+        <v>0.72916666666666674</v>
       </c>
       <c r="F9">
-        <v>0.7261956998683634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.72619569986836341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -790,16 +2110,16 @@
         <v>900</v>
       </c>
       <c r="C10">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10">
         <v>0.7142857142857143</v>
       </c>
       <c r="E10">
-        <v>0.7083333333333333</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="F10">
-        <v>0.7062937062937062</v>
+        <v>0.70629370629370625</v>
       </c>
     </row>
   </sheetData>
@@ -808,14 +2128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -840,19 +2160,19 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D2">
-        <v>0.7274463708492507</v>
+        <v>0.72744637084925068</v>
       </c>
       <c r="E2">
-        <v>0.7281167108753316</v>
+        <v>0.72811671087533159</v>
       </c>
       <c r="F2">
-        <v>0.7271123525304128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.72711235253041284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -860,19 +2180,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0.7515151515151515</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="D3">
-        <v>0.7511022927689595</v>
+        <v>0.75110229276895946</v>
       </c>
       <c r="E3">
-        <v>0.7517683465959328</v>
+        <v>0.75176834659593283</v>
       </c>
       <c r="F3">
-        <v>0.7511861414542647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.75118614145426466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -880,19 +2200,19 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>0.7515151515151515</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="D4">
-        <v>0.7511022927689595</v>
+        <v>0.75110229276895946</v>
       </c>
       <c r="E4">
-        <v>0.7517683465959328</v>
+        <v>0.75176834659593283</v>
       </c>
       <c r="F4">
-        <v>0.7511861414542647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.75118614145426466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -900,19 +2220,19 @@
         <v>400</v>
       </c>
       <c r="C5">
-        <v>0.7515151515151515</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="D5">
-        <v>0.7511022927689595</v>
+        <v>0.75110229276895946</v>
       </c>
       <c r="E5">
-        <v>0.7517683465959328</v>
+        <v>0.75176834659593283</v>
       </c>
       <c r="F5">
-        <v>0.7511861414542647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.75118614145426466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,19 +2240,19 @@
         <v>500</v>
       </c>
       <c r="C6">
-        <v>0.7515151515151515</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="D6">
-        <v>0.7511022927689595</v>
+        <v>0.75110229276895946</v>
       </c>
       <c r="E6">
-        <v>0.7517683465959328</v>
+        <v>0.75176834659593283</v>
       </c>
       <c r="F6">
-        <v>0.7511861414542647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.75118614145426466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -940,19 +2260,19 @@
         <v>600</v>
       </c>
       <c r="C7">
-        <v>0.7515151515151515</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="D7">
-        <v>0.7511022927689595</v>
+        <v>0.75110229276895946</v>
       </c>
       <c r="E7">
-        <v>0.7517683465959328</v>
+        <v>0.75176834659593283</v>
       </c>
       <c r="F7">
-        <v>0.7511861414542647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.75118614145426466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -960,19 +2280,19 @@
         <v>700</v>
       </c>
       <c r="C8">
-        <v>0.7636363636363637</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="D8">
-        <v>0.7629526052399176</v>
+        <v>0.76295260523991759</v>
       </c>
       <c r="E8">
-        <v>0.7632625994694959</v>
+        <v>0.76326259946949593</v>
       </c>
       <c r="F8">
         <v>0.7630794153381687</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -980,19 +2300,19 @@
         <v>800</v>
       </c>
       <c r="C9">
-        <v>0.7636363636363637</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="D9">
-        <v>0.7629526052399176</v>
+        <v>0.76295260523991759</v>
       </c>
       <c r="E9">
-        <v>0.7632625994694959</v>
+        <v>0.76326259946949593</v>
       </c>
       <c r="F9">
         <v>0.7630794153381687</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1000,16 +2320,16 @@
         <v>900</v>
       </c>
       <c r="C10">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="D10">
-        <v>0.7568523430592395</v>
+        <v>0.75685234305923954</v>
       </c>
       <c r="E10">
-        <v>0.7568523430592395</v>
+        <v>0.75685234305923954</v>
       </c>
       <c r="F10">
-        <v>0.7568523430592397</v>
+        <v>0.75685234305923965</v>
       </c>
     </row>
   </sheetData>
@@ -1018,14 +2338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1050,19 +2370,19 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.7205479452054795</v>
+        <v>0.72054794520547949</v>
       </c>
       <c r="D2">
-        <v>0.7179545454545455</v>
+        <v>0.71795454545454551</v>
       </c>
       <c r="E2">
-        <v>0.7179545454545455</v>
+        <v>0.71795454545454551</v>
       </c>
       <c r="F2">
-        <v>0.7179545454545455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.71795454545454551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1070,19 +2390,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0.7205479452054795</v>
+        <v>0.72054794520547949</v>
       </c>
       <c r="D3">
         <v>0.7186446290944124</v>
       </c>
       <c r="E3">
-        <v>0.7200757575757576</v>
+        <v>0.72007575757575759</v>
       </c>
       <c r="F3">
-        <v>0.7190103852191765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.71901038521917648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1090,19 +2410,19 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>0.7178082191780822</v>
+        <v>0.71780821917808224</v>
       </c>
       <c r="D4">
-        <v>0.7157639474635498</v>
+        <v>0.71576394746354977</v>
       </c>
       <c r="E4">
-        <v>0.7170454545454545</v>
+        <v>0.71704545454545454</v>
       </c>
       <c r="F4">
-        <v>0.7161377519046216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.71613775190462159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1110,19 +2430,19 @@
         <v>400</v>
       </c>
       <c r="C5">
-        <v>0.7178082191780822</v>
+        <v>0.71780821917808224</v>
       </c>
       <c r="D5">
-        <v>0.7155354449472097</v>
+        <v>0.71553544494720966</v>
       </c>
       <c r="E5">
-        <v>0.7165151515151515</v>
+        <v>0.71651515151515155</v>
       </c>
       <c r="F5">
-        <v>0.7158889098809749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.71588890988097487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1130,19 +2450,19 @@
         <v>500</v>
       </c>
       <c r="C6">
-        <v>0.7178082191780822</v>
+        <v>0.71780821917808224</v>
       </c>
       <c r="D6">
-        <v>0.7157639474635498</v>
+        <v>0.71576394746354977</v>
       </c>
       <c r="E6">
-        <v>0.7170454545454545</v>
+        <v>0.71704545454545454</v>
       </c>
       <c r="F6">
-        <v>0.7161377519046216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.71613775190462159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1150,19 +2470,19 @@
         <v>600</v>
       </c>
       <c r="C7">
-        <v>0.7178082191780822</v>
+        <v>0.71780821917808224</v>
       </c>
       <c r="D7">
-        <v>0.7155354449472097</v>
+        <v>0.71553544494720966</v>
       </c>
       <c r="E7">
-        <v>0.7165151515151515</v>
+        <v>0.71651515151515155</v>
       </c>
       <c r="F7">
-        <v>0.7158889098809749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.71588890988097487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1170,19 +2490,19 @@
         <v>700</v>
       </c>
       <c r="C8">
-        <v>0.7178082191780822</v>
+        <v>0.71780821917808224</v>
       </c>
       <c r="D8">
-        <v>0.7152327904583157</v>
+        <v>0.71523279045831567</v>
       </c>
       <c r="E8">
-        <v>0.7154545454545455</v>
+        <v>0.71545454545454545</v>
       </c>
       <c r="F8">
-        <v>0.7153381944286699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.71533819442866986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1190,19 +2510,19 @@
         <v>800</v>
       </c>
       <c r="C9">
-        <v>0.7205479452054795</v>
+        <v>0.72054794520547949</v>
       </c>
       <c r="D9">
         <v>0.7186446290944124</v>
       </c>
       <c r="E9">
-        <v>0.7200757575757576</v>
+        <v>0.72007575757575759</v>
       </c>
       <c r="F9">
-        <v>0.7190103852191765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.71901038521917648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1210,16 +2530,16 @@
         <v>900</v>
       </c>
       <c r="C10">
-        <v>0.7205479452054795</v>
+        <v>0.72054794520547949</v>
       </c>
       <c r="D10">
         <v>0.7186446290944124</v>
       </c>
       <c r="E10">
-        <v>0.7200757575757576</v>
+        <v>0.72007575757575759</v>
       </c>
       <c r="F10">
-        <v>0.7190103852191765</v>
+        <v>0.71901038521917648</v>
       </c>
     </row>
   </sheetData>
